--- a/public/formatos/Formato Data Epidemiológica/Formato Data Epidemiológica 2025.xlsx
+++ b/public/formatos/Formato Data Epidemiológica/Formato Data Epidemiológica 2025.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="261"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="261" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025'!$A$6:$AJ$62</definedName>
-  </definedNames>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>TIPO DE EVENTO</t>
   </si>
   <si>
+    <t>CLASIFICACION ANTERIOR</t>
+  </si>
+  <si>
+    <t>FORMATO DE DATA EPIDEMIOLOGICA</t>
+  </si>
+  <si>
+    <t>Plagas comunes</t>
+  </si>
+  <si>
+    <t>Presuntivo</t>
+  </si>
+  <si>
+    <t>Plaga cuarentenaria</t>
+  </si>
+  <si>
+    <t>Sin Novedad</t>
+  </si>
+  <si>
     <t>REGISTRO DE NOTIFICACION</t>
   </si>
   <si>
@@ -55,6 +71,9 @@
     <t>SECTOR</t>
   </si>
   <si>
+    <t>LUGAR O SITIO DONDE SE REALIZA LA INSPECCION (Predio, Unidad de Producción, Vehículo de Carga, Patios Productivos, Vivero, Casas de Cultivos, etc)</t>
+  </si>
+  <si>
     <t>DIRECCION DE LA UNIDAD QUE SE INSPECCIONO</t>
   </si>
   <si>
@@ -124,329 +143,194 @@
     <t>RESPONSABLE DE LA TRANSCRIPCION</t>
   </si>
   <si>
-    <t>Sin Novedad</t>
-  </si>
-  <si>
-    <t>LUGAR O SITIO DONDE SE REALIZA LA INSPECCION (Predio, Unidad de Producción, Vehículo de Carga, Patios Productivos, Vivero, Casas de Cultivos, etc)</t>
-  </si>
-  <si>
-    <t>CLASIFICACION ANTERIOR</t>
-  </si>
-  <si>
-    <t>Plagas comunes</t>
-  </si>
-  <si>
-    <t>Presuntivo</t>
-  </si>
-  <si>
-    <t>Plaga cuarentenaria</t>
-  </si>
-  <si>
-    <t>FORMATO DE DATA EPIDEMIOLOGICA</t>
-  </si>
-  <si>
     <t>algo</t>
   </si>
   <si>
     <t>Unidad de Produccion</t>
+  </si>
+  <si>
+    <t>asdagad</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>vehiculo</t>
+  </si>
+  <si>
+    <t>aswertfgyjh</t>
+  </si>
+  <si>
+    <t>Yuca</t>
+  </si>
+  <si>
+    <t>saludos</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>nombre5</t>
+  </si>
+  <si>
+    <t>J-50000005-5</t>
+  </si>
+  <si>
+    <t>punto</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>Se ve raro</t>
+  </si>
+  <si>
+    <t>nombre4</t>
+  </si>
+  <si>
+    <t>Responsable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="* #,##0.00&quot; € &quot;;\-* #,##0.00&quot; € &quot;;* \-#&quot; € &quot;;@\ "/>
-  </numFmts>
-  <fonts count="46">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="13">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="ARIAL"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="ARIAL"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Liberation Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="WenQuanYi Zen Hei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Liberation Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Lohit Hindi"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Lohit Hindi"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="WenQuanYi Zen Hei"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8.8000000000000007"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="00000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="00000000"/>
+      <name val="ARIAL"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="00000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="00000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
-      <color indexed="8"/>
+      <color rgb="00000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="20"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,36 +339,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="26"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000AE00"/>
+        <bgColor rgb="00339966"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -494,90 +372,179 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="00000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00333333"/>
+      </right>
+      <top style="thin">
+        <color rgb="00333333"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00333333"/>
+      </left>
+      <right style="thin">
+        <color rgb="00333333"/>
+      </right>
+      <top style="thin">
+        <color rgb="00333333"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00333333"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="00333333"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="00333333"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="00333333"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00333333"/>
+      </right>
+      <top style="thin">
+        <color rgb="00333333"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="00333333"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="00333333"/>
+      </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="00333333"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="00000000"/>
       </right>
       <top/>
       <bottom/>
@@ -585,916 +552,527 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color rgb="00000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="00000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="104">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="157">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="93" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="95" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="95" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="95" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="95" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="89" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="3" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="3" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="4" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="3" fillId="0" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="3" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="3" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="3" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="4" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="4" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="5" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="104">
-    <cellStyle name="Estilo 1" xfId="1"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in " xfId="2"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in " xfId="3"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in " xfId="4"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="5"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="6"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="7"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2 2" xfId="8"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2 2 2 2" xfId="9"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 3" xfId="10"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="11"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="12"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="13"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="14"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="15"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="16"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="17"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="18"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="19"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Explanatory Text" xfId="20"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal" xfId="21"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="22"/>
-    <cellStyle name="Excel Built-in Excel Built-in Explanatory Text" xfId="23"/>
-    <cellStyle name="Excel Built-in Excel Built-in Normal" xfId="24"/>
-    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="25"/>
-    <cellStyle name="Excel Built-in Normal" xfId="26"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="27"/>
-    <cellStyle name="Excel Built-in Normal 3" xfId="28"/>
-    <cellStyle name="Excel Built-in Normal 4" xfId="29"/>
-    <cellStyle name="Excel Built-in Normal 9 7" xfId="30"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="31"/>
-    <cellStyle name="Hipervínculo 2" xfId="32"/>
-    <cellStyle name="Hipervínculo 2 2" xfId="33"/>
-    <cellStyle name="Millares 2" xfId="34"/>
-    <cellStyle name="Millares 3" xfId="35"/>
-    <cellStyle name="Millares 4" xfId="36"/>
-    <cellStyle name="Moneda 2" xfId="37"/>
-    <cellStyle name="Moneda 2 2" xfId="38"/>
-    <cellStyle name="Moneda 3" xfId="39"/>
-    <cellStyle name="Moneda 4" xfId="40"/>
-    <cellStyle name="Moneda 6" xfId="41"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 110" xfId="42"/>
-    <cellStyle name="Normal 110 2" xfId="43"/>
-    <cellStyle name="Normal 13" xfId="44"/>
-    <cellStyle name="Normal 13 2" xfId="45"/>
-    <cellStyle name="Normal 13 3" xfId="46"/>
-    <cellStyle name="Normal 2" xfId="47"/>
-    <cellStyle name="Normal 2 2" xfId="48"/>
-    <cellStyle name="Normal 2 2 2" xfId="49"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="50"/>
-    <cellStyle name="Normal 2 3" xfId="51"/>
-    <cellStyle name="Normal 2 3 2" xfId="52"/>
-    <cellStyle name="Normal 2 4" xfId="53"/>
-    <cellStyle name="Normal 2 4 2" xfId="54"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="55"/>
-    <cellStyle name="Normal 2 4 3" xfId="56"/>
-    <cellStyle name="Normal 2 4 4" xfId="57"/>
-    <cellStyle name="Normal 2 5" xfId="58"/>
-    <cellStyle name="Normal 2 5 2" xfId="59"/>
-    <cellStyle name="Normal 3" xfId="60"/>
-    <cellStyle name="Normal 3 2" xfId="61"/>
-    <cellStyle name="Normal 3 2 2" xfId="62"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="63"/>
-    <cellStyle name="Normal 3 2 2 2 2" xfId="64"/>
-    <cellStyle name="Normal 3 2 3" xfId="65"/>
-    <cellStyle name="Normal 3 2 4" xfId="66"/>
-    <cellStyle name="Normal 3 3" xfId="67"/>
-    <cellStyle name="Normal 3 3 2" xfId="68"/>
-    <cellStyle name="Normal 4" xfId="69"/>
-    <cellStyle name="Normal 4 2" xfId="70"/>
-    <cellStyle name="Normal 4 2 2" xfId="71"/>
-    <cellStyle name="Normal 4 3" xfId="72"/>
-    <cellStyle name="Normal 4 4" xfId="73"/>
-    <cellStyle name="Normal 5" xfId="74"/>
-    <cellStyle name="Normal 5 2" xfId="75"/>
-    <cellStyle name="Normal 5 2 2" xfId="76"/>
-    <cellStyle name="Normal 5 2 3" xfId="77"/>
-    <cellStyle name="Normal 5 3" xfId="78"/>
-    <cellStyle name="Normal 5 4" xfId="79"/>
-    <cellStyle name="Normal 6" xfId="80"/>
-    <cellStyle name="Normal 6 2" xfId="81"/>
-    <cellStyle name="Normal 6 3" xfId="82"/>
-    <cellStyle name="Normal 7" xfId="83"/>
-    <cellStyle name="Normal 7 2" xfId="84"/>
-    <cellStyle name="Normal 7 3" xfId="85"/>
-    <cellStyle name="Normal 9 7" xfId="86"/>
-    <cellStyle name="Normal 9 7 2" xfId="87"/>
-    <cellStyle name="Porcentaje 2" xfId="88"/>
-    <cellStyle name="Porcentaje 2 2" xfId="89"/>
-    <cellStyle name="Porcentaje 2 3" xfId="90"/>
-    <cellStyle name="Porcentaje 3" xfId="91"/>
-    <cellStyle name="Porcentaje 3 2" xfId="92"/>
-    <cellStyle name="Porcentaje 4" xfId="93"/>
-    <cellStyle name="Porcentual 2" xfId="94"/>
-    <cellStyle name="TableStyleLight1" xfId="95"/>
-    <cellStyle name="TableStyleLight1 2" xfId="96"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="97"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="98"/>
-    <cellStyle name="TableStyleLight1 3" xfId="99"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="100"/>
-    <cellStyle name="TableStyleLight1 4" xfId="101"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="102"/>
-    <cellStyle name="TableStyleLight1 5" xfId="103"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="0000AE00"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="001A1A1A"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00212121"/>
-      <rgbColor rgb="003A3935"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1515,39 +1093,24 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1572" name="1 Imagen" descr="Recorte de pantalla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024060000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="1 Imagen" descr="Recorte de pantalla"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="27441525"/>
+      <xdr:spPr>
+        <a:xfrm rot="0">
           <a:ext cx="9525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1567,39 +1130,24 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1573" name="2 Imagen" descr="Recorte de pantalla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025060000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="2 Imagen" descr="Recorte de pantalla"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="27441525"/>
+      <xdr:spPr>
+        <a:xfrm rot="0">
           <a:ext cx="9525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1619,39 +1167,24 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1574" name="1 Imagen" descr="Recorte de pantalla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026060000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="1 Imagen" descr="Recorte de pantalla"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="27441525"/>
+      <xdr:spPr>
+        <a:xfrm rot="0">
           <a:ext cx="9525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1671,39 +1204,24 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1575" name="2 Imagen" descr="Recorte de pantalla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027060000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="2 Imagen" descr="Recorte de pantalla"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="27441525"/>
+      <xdr:spPr>
+        <a:xfrm rot="0">
           <a:ext cx="9525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1712,7 +1230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1989,314 +1507,385 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="11.5703125" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15" customWidth="1"/>
-    <col min="5" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" customWidth="1"/>
-    <col min="24" max="24" width="25.5703125" customWidth="1"/>
-    <col min="25" max="25" width="20.140625" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" customWidth="1"/>
-    <col min="32" max="32" width="17.28515625" customWidth="1"/>
-    <col min="33" max="33" width="60" customWidth="1"/>
-    <col min="34" max="34" width="24.5703125" style="16" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" style="16" customWidth="1"/>
-    <col min="36" max="36" width="23.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true" style="15"/>
+    <col min="5" max="5" width="8.5703125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.28515625" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.5703125" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18" customWidth="true" style="0"/>
+    <col min="10" max="10" width="17.140625" customWidth="true" style="0"/>
+    <col min="11" max="11" width="20.7109375" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18" customWidth="true" style="0"/>
+    <col min="13" max="13" width="35.42578125" customWidth="true" style="0"/>
+    <col min="14" max="14" width="23.42578125" customWidth="true" style="0"/>
+    <col min="15" max="15" width="25.85546875" customWidth="true" style="0"/>
+    <col min="16" max="16" width="22.28515625" customWidth="true" style="0"/>
+    <col min="17" max="17" width="26" customWidth="true" style="0"/>
+    <col min="18" max="18" width="26.7109375" customWidth="true" style="0"/>
+    <col min="19" max="19" width="12.5703125" customWidth="true" style="0"/>
+    <col min="20" max="20" width="17.42578125" customWidth="true" style="0"/>
+    <col min="21" max="21" width="11.28515625" customWidth="true" style="0"/>
+    <col min="22" max="22" width="14.5703125" customWidth="true" style="0"/>
+    <col min="23" max="23" width="18.28515625" customWidth="true" style="0"/>
+    <col min="24" max="24" width="25.5703125" customWidth="true" style="0"/>
+    <col min="25" max="25" width="20.140625" customWidth="true" style="0"/>
+    <col min="26" max="26" width="12.85546875" customWidth="true" style="0"/>
+    <col min="27" max="27" width="9.7109375" customWidth="true" style="0"/>
+    <col min="28" max="28" width="10.42578125" customWidth="true" style="0"/>
+    <col min="29" max="29" width="16.7109375" customWidth="true" style="0"/>
+    <col min="30" max="30" width="19.28515625" customWidth="true" style="0"/>
+    <col min="31" max="31" width="18.5703125" customWidth="true" style="0"/>
+    <col min="32" max="32" width="17.28515625" customWidth="true" style="0"/>
+    <col min="33" max="33" width="60" customWidth="true" style="0"/>
+    <col min="34" max="34" width="24.5703125" customWidth="true" style="16"/>
+    <col min="35" max="35" width="19.85546875" customWidth="true" style="16"/>
+    <col min="36" max="36" width="23.28515625" customWidth="true" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="26.25" customHeight="1">
+    <row r="1" spans="1:36" customHeight="1" ht="26.25">
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="155"/>
+      <c r="B1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="153"/>
       <c r="D1" s="140"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
       <c r="G1" s="140"/>
       <c r="H1" s="151"/>
-      <c r="I1" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-    </row>
-    <row r="2" spans="1:36" ht="12.75" customHeight="1">
+      <c r="I1" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+    </row>
+    <row r="2" spans="1:36" customHeight="1" ht="12.75">
       <c r="A2" s="139">
         <v>0</v>
       </c>
-      <c r="B2" s="152" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="152"/>
+      <c r="B2" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="155"/>
       <c r="D2" s="141"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
       <c r="G2" s="141"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-    </row>
-    <row r="3" spans="1:36" ht="12.75" customHeight="1">
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+    </row>
+    <row r="3" spans="1:36" customHeight="1" ht="12.75">
       <c r="A3" s="139">
         <v>1</v>
       </c>
-      <c r="B3" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="152"/>
+      <c r="B3" s="155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="155"/>
       <c r="D3" s="141"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="141"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-    </row>
-    <row r="4" spans="1:36" ht="12.75" customHeight="1">
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+    </row>
+    <row r="4" spans="1:36" customHeight="1" ht="12.75">
       <c r="A4" s="139">
         <v>2</v>
       </c>
-      <c r="B4" s="152" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="152"/>
+      <c r="B4" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="155"/>
       <c r="D4" s="141"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="141"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-    </row>
-    <row r="5" spans="1:36" ht="12.75" customHeight="1">
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+    </row>
+    <row r="5" spans="1:36" customHeight="1" ht="12.75">
       <c r="A5" s="139">
         <v>3</v>
       </c>
-      <c r="B5" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="152"/>
+      <c r="B5" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="155"/>
       <c r="D5" s="141"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
       <c r="G5" s="141"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-    </row>
-    <row r="6" spans="1:36" ht="64.5" customHeight="1">
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+    </row>
+    <row r="6" spans="1:36" customHeight="1" ht="64.5">
       <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G6" s="126" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I6" s="126" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M6" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="S6" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="X6" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA6" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB6" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC6" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD6" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE6" s="56" t="s">
-        <v>29</v>
-      </c>
       <c r="AF6" s="56" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AG6" s="56" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AH6" s="56" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AI6" s="56" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AJ6" s="57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="8" customFormat="1" ht="34.9" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2322,16 +1911,16 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>43</v>
@@ -2360,45 +1949,103 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="59"/>
     </row>
-    <row r="8" spans="1:36" s="7" customFormat="1" ht="34.9" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="147"/>
+    <row r="8" spans="1:36" customHeight="1" ht="34.9" s="7" customFormat="1">
+      <c r="A8" s="49">
+        <v>1</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="146" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="66">
+        <v>24</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2025</v>
+      </c>
+      <c r="H8" s="147">
+        <v>3</v>
+      </c>
       <c r="I8" s="147"/>
       <c r="J8" s="147"/>
       <c r="K8" s="147"/>
       <c r="L8" s="147"/>
-      <c r="M8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>48</v>
+      </c>
       <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="69"/>
+      <c r="O8" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="68">
+        <v>3</v>
+      </c>
+      <c r="T8" s="67">
+        <v>6</v>
+      </c>
+      <c r="U8" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="68">
+        <v>5</v>
+      </c>
+      <c r="W8" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="147" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="69" t="s">
+        <v>56</v>
+      </c>
       <c r="AA8" s="66"/>
       <c r="AB8" s="66"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="147"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="59"/>
-    </row>
-    <row r="9" spans="1:36" s="7" customFormat="1" ht="34.9" customHeight="1">
+      <c r="AC8" s="147" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="70">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" s="66">
+        <v>40000000004</v>
+      </c>
+      <c r="AJ8" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" customHeight="1" ht="34.9" s="7" customFormat="1">
       <c r="A9" s="72"/>
       <c r="B9" s="78"/>
       <c r="C9" s="76"/>
@@ -2436,7 +2083,7 @@
       <c r="AI9" s="73"/>
       <c r="AJ9" s="59"/>
     </row>
-    <row r="10" spans="1:36" s="7" customFormat="1" ht="34.9" customHeight="1">
+    <row r="10" spans="1:36" customHeight="1" ht="34.9" s="7" customFormat="1">
       <c r="A10" s="2"/>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
@@ -2474,7 +2121,7 @@
       <c r="AI10" s="18"/>
       <c r="AJ10" s="59"/>
     </row>
-    <row r="11" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="11" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -2512,7 +2159,7 @@
       <c r="AI11" s="18"/>
       <c r="AJ11" s="59"/>
     </row>
-    <row r="12" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="12" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
@@ -2550,7 +2197,7 @@
       <c r="AI12" s="18"/>
       <c r="AJ12" s="59"/>
     </row>
-    <row r="13" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="13" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="64"/>
@@ -2588,7 +2235,7 @@
       <c r="AI13" s="82"/>
       <c r="AJ13" s="59"/>
     </row>
-    <row r="14" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="14" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A14" s="87"/>
       <c r="B14" s="33"/>
       <c r="C14" s="88"/>
@@ -2626,7 +2273,7 @@
       <c r="AI14" s="93"/>
       <c r="AJ14" s="59"/>
     </row>
-    <row r="15" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="15" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A15" s="94"/>
       <c r="B15" s="24"/>
       <c r="C15" s="64"/>
@@ -2664,7 +2311,7 @@
       <c r="AI15" s="107"/>
       <c r="AJ15" s="59"/>
     </row>
-    <row r="16" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="16" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A16" s="94"/>
       <c r="B16" s="33"/>
       <c r="C16" s="88"/>
@@ -2702,7 +2349,7 @@
       <c r="AI16" s="107"/>
       <c r="AJ16" s="59"/>
     </row>
-    <row r="17" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="17" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A17" s="94"/>
       <c r="B17" s="24"/>
       <c r="C17" s="64"/>
@@ -2740,7 +2387,7 @@
       <c r="AI17" s="107"/>
       <c r="AJ17" s="59"/>
     </row>
-    <row r="18" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="18" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A18" s="94"/>
       <c r="B18" s="33"/>
       <c r="C18" s="88"/>
@@ -2778,7 +2425,7 @@
       <c r="AI18" s="107"/>
       <c r="AJ18" s="59"/>
     </row>
-    <row r="19" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="19" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A19" s="94"/>
       <c r="B19" s="24"/>
       <c r="C19" s="64"/>
@@ -2816,7 +2463,7 @@
       <c r="AI19" s="107"/>
       <c r="AJ19" s="59"/>
     </row>
-    <row r="20" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="20" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A20" s="94"/>
       <c r="B20" s="24"/>
       <c r="C20" s="88"/>
@@ -2854,7 +2501,7 @@
       <c r="AI20" s="107"/>
       <c r="AJ20" s="59"/>
     </row>
-    <row r="21" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="21" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A21" s="94"/>
       <c r="B21" s="33"/>
       <c r="C21" s="64"/>
@@ -2892,7 +2539,7 @@
       <c r="AI21" s="107"/>
       <c r="AJ21" s="59"/>
     </row>
-    <row r="22" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="22" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A22" s="94"/>
       <c r="B22" s="24"/>
       <c r="C22" s="88"/>
@@ -2930,7 +2577,7 @@
       <c r="AI22" s="102"/>
       <c r="AJ22" s="59"/>
     </row>
-    <row r="23" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="23" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A23" s="94"/>
       <c r="B23" s="33"/>
       <c r="C23" s="64"/>
@@ -2968,7 +2615,7 @@
       <c r="AI23" s="102"/>
       <c r="AJ23" s="59"/>
     </row>
-    <row r="24" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="24" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A24" s="94"/>
       <c r="B24" s="33"/>
       <c r="C24" s="88"/>
@@ -3006,7 +2653,7 @@
       <c r="AI24" s="102"/>
       <c r="AJ24" s="59"/>
     </row>
-    <row r="25" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="25" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
       <c r="C25" s="64"/>
@@ -3044,7 +2691,7 @@
       <c r="AI25" s="102"/>
       <c r="AJ25" s="59"/>
     </row>
-    <row r="26" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="26" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A26" s="2"/>
       <c r="B26" s="33"/>
       <c r="C26" s="88"/>
@@ -3082,7 +2729,7 @@
       <c r="AI26" s="102"/>
       <c r="AJ26" s="59"/>
     </row>
-    <row r="27" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="27" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="24"/>
       <c r="C27" s="64"/>
@@ -3120,7 +2767,7 @@
       <c r="AI27" s="102"/>
       <c r="AJ27" s="59"/>
     </row>
-    <row r="28" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="28" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="33"/>
       <c r="C28" s="88"/>
@@ -3158,7 +2805,7 @@
       <c r="AI28" s="102"/>
       <c r="AJ28" s="59"/>
     </row>
-    <row r="29" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="29" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="33"/>
       <c r="C29" s="64"/>
@@ -3196,7 +2843,7 @@
       <c r="AI29" s="102"/>
       <c r="AJ29" s="59"/>
     </row>
-    <row r="30" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="30" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A30" s="2"/>
       <c r="B30" s="24"/>
       <c r="C30" s="88"/>
@@ -3234,7 +2881,7 @@
       <c r="AI30" s="102"/>
       <c r="AJ30" s="59"/>
     </row>
-    <row r="31" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="31" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="33"/>
       <c r="C31" s="64"/>
@@ -3272,7 +2919,7 @@
       <c r="AI31" s="102"/>
       <c r="AJ31" s="59"/>
     </row>
-    <row r="32" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="32" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="33"/>
       <c r="C32" s="88"/>
@@ -3310,7 +2957,7 @@
       <c r="AI32" s="102"/>
       <c r="AJ32" s="59"/>
     </row>
-    <row r="33" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="33" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A33" s="2"/>
       <c r="B33" s="33"/>
       <c r="C33" s="64"/>
@@ -3348,7 +2995,7 @@
       <c r="AI33" s="102"/>
       <c r="AJ33" s="59"/>
     </row>
-    <row r="34" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="34" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="88"/>
@@ -3386,7 +3033,7 @@
       <c r="AI34" s="102"/>
       <c r="AJ34" s="59"/>
     </row>
-    <row r="35" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="35" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A35" s="2"/>
       <c r="B35" s="24"/>
       <c r="C35" s="64"/>
@@ -3424,7 +3071,7 @@
       <c r="AI35" s="102"/>
       <c r="AJ35" s="59"/>
     </row>
-    <row r="36" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="36" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A36" s="2"/>
       <c r="B36" s="24"/>
       <c r="C36" s="88"/>
@@ -3462,7 +3109,7 @@
       <c r="AI36" s="102"/>
       <c r="AJ36" s="59"/>
     </row>
-    <row r="37" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="37" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A37" s="2"/>
       <c r="B37" s="24"/>
       <c r="C37" s="64"/>
@@ -3500,7 +3147,7 @@
       <c r="AI37" s="102"/>
       <c r="AJ37" s="59"/>
     </row>
-    <row r="38" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="38" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A38" s="2"/>
       <c r="B38" s="24"/>
       <c r="C38" s="88"/>
@@ -3538,7 +3185,7 @@
       <c r="AI38" s="102"/>
       <c r="AJ38" s="59"/>
     </row>
-    <row r="39" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="39" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="64"/>
@@ -3576,7 +3223,7 @@
       <c r="AI39" s="102"/>
       <c r="AJ39" s="59"/>
     </row>
-    <row r="40" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="40" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="88"/>
@@ -3614,7 +3261,7 @@
       <c r="AI40" s="107"/>
       <c r="AJ40" s="59"/>
     </row>
-    <row r="41" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="41" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A41" s="2"/>
       <c r="B41" s="24"/>
       <c r="C41" s="64"/>
@@ -3652,7 +3299,7 @@
       <c r="AI41" s="107"/>
       <c r="AJ41" s="59"/>
     </row>
-    <row r="42" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="42" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A42" s="2"/>
       <c r="B42" s="24"/>
       <c r="C42" s="88"/>
@@ -3690,7 +3337,7 @@
       <c r="AI42" s="107"/>
       <c r="AJ42" s="59"/>
     </row>
-    <row r="43" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="43" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A43" s="2"/>
       <c r="B43" s="24"/>
       <c r="C43" s="64"/>
@@ -3728,7 +3375,7 @@
       <c r="AI43" s="107"/>
       <c r="AJ43" s="59"/>
     </row>
-    <row r="44" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="44" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A44" s="2"/>
       <c r="B44" s="24"/>
       <c r="C44" s="88"/>
@@ -3766,7 +3413,7 @@
       <c r="AI44" s="107"/>
       <c r="AJ44" s="59"/>
     </row>
-    <row r="45" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="45" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A45" s="94"/>
       <c r="B45" s="76"/>
       <c r="C45" s="88"/>
@@ -3804,7 +3451,7 @@
       <c r="AI45" s="4"/>
       <c r="AJ45" s="59"/>
     </row>
-    <row r="46" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="46" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A46" s="48"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
@@ -3842,7 +3489,7 @@
       <c r="AI46" s="66"/>
       <c r="AJ46" s="59"/>
     </row>
-    <row r="47" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="47" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A47" s="114"/>
       <c r="B47" s="76"/>
       <c r="C47" s="88"/>
@@ -3880,7 +3527,7 @@
       <c r="AI47" s="73"/>
       <c r="AJ47" s="59"/>
     </row>
-    <row r="48" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="48" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A48" s="94"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -3918,7 +3565,7 @@
       <c r="AI48" s="73"/>
       <c r="AJ48" s="59"/>
     </row>
-    <row r="49" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="49" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="64"/>
       <c r="C49" s="88"/>
@@ -3956,7 +3603,7 @@
       <c r="AI49" s="73"/>
       <c r="AJ49" s="59"/>
     </row>
-    <row r="50" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="50" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="76"/>
       <c r="C50" s="64"/>
@@ -3994,7 +3641,7 @@
       <c r="AI50" s="18"/>
       <c r="AJ50" s="59"/>
     </row>
-    <row r="51" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="51" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A51" s="32"/>
       <c r="B51" s="64"/>
       <c r="C51" s="88"/>
@@ -4032,7 +3679,7 @@
       <c r="AI51" s="29"/>
       <c r="AJ51" s="59"/>
     </row>
-    <row r="52" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="52" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A52" s="32"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -4070,7 +3717,7 @@
       <c r="AI52" s="29"/>
       <c r="AJ52" s="59"/>
     </row>
-    <row r="53" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="53" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A53" s="32"/>
       <c r="B53" s="64"/>
       <c r="C53" s="88"/>
@@ -4108,7 +3755,7 @@
       <c r="AI53" s="29"/>
       <c r="AJ53" s="59"/>
     </row>
-    <row r="54" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="54" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A54" s="32"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
@@ -4146,7 +3793,7 @@
       <c r="AI54" s="29"/>
       <c r="AJ54" s="59"/>
     </row>
-    <row r="55" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="55" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A55" s="32"/>
       <c r="B55" s="64"/>
       <c r="C55" s="88"/>
@@ -4184,7 +3831,7 @@
       <c r="AI55" s="29"/>
       <c r="AJ55" s="59"/>
     </row>
-    <row r="56" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="56" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A56" s="32"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
@@ -4222,7 +3869,7 @@
       <c r="AI56" s="29"/>
       <c r="AJ56" s="59"/>
     </row>
-    <row r="57" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="57" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A57" s="32"/>
       <c r="B57" s="64"/>
       <c r="C57" s="88"/>
@@ -4260,7 +3907,7 @@
       <c r="AI57" s="29"/>
       <c r="AJ57" s="59"/>
     </row>
-    <row r="58" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="58" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A58" s="32"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
@@ -4298,7 +3945,7 @@
       <c r="AI58" s="29"/>
       <c r="AJ58" s="59"/>
     </row>
-    <row r="59" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="59" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A59" s="32"/>
       <c r="B59" s="64"/>
       <c r="C59" s="88"/>
@@ -4336,7 +3983,7 @@
       <c r="AI59" s="29"/>
       <c r="AJ59" s="59"/>
     </row>
-    <row r="60" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="60" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A60" s="32"/>
       <c r="B60" s="88"/>
       <c r="C60" s="88"/>
@@ -4374,7 +4021,7 @@
       <c r="AI60" s="29"/>
       <c r="AJ60" s="59"/>
     </row>
-    <row r="61" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="61" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A61" s="127"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -4412,7 +4059,7 @@
       <c r="AI61" s="29"/>
       <c r="AJ61" s="59"/>
     </row>
-    <row r="62" spans="1:36" s="9" customFormat="1" ht="34.9" customHeight="1">
+    <row r="62" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A62" s="128"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -4450,14 +4097,12 @@
       <c r="AI62" s="12"/>
       <c r="AJ62" s="59"/>
     </row>
+    <row r="63" spans="1:36">
+      <c r="A63"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="15">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B5:C5"/>
@@ -4468,13 +4113,24 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/formatos/Formato Data Epidemiológica/Formato Data Epidemiológica 2025.xlsx
+++ b/public/formatos/Formato Data Epidemiológica/Formato Data Epidemiológica 2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>TIPO DE EVENTO</t>
   </si>
@@ -143,76 +143,55 @@
     <t>RESPONSABLE DE LA TRANSCRIPCION</t>
   </si>
   <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>nosealv</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>20/04/2025</t>
+    <t>11/04/2025</t>
   </si>
   <si>
     <t>04</t>
   </si>
   <si>
-    <t>estado1</t>
-  </si>
-  <si>
-    <t>municipio1</t>
-  </si>
-  <si>
-    <t>parroquia1</t>
-  </si>
-  <si>
-    <t>sector1</t>
-  </si>
-  <si>
-    <t>Almacen</t>
-  </si>
-  <si>
-    <t>direccion1</t>
-  </si>
-  <si>
-    <t>nombre1</t>
-  </si>
-  <si>
-    <t>Palma</t>
-  </si>
-  <si>
-    <t>saludos</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>nombre2</t>
-  </si>
-  <si>
-    <t>J-20000002-2</t>
-  </si>
-  <si>
-    <t>punto</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>24/04/2025</t>
-  </si>
-  <si>
-    <t>Se ve raro</t>
-  </si>
-  <si>
-    <t>nombre3</t>
+    <t>Vehiculo</t>
+  </si>
+  <si>
+    <t>XME881O</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Toneladas</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Gramo lechoso</t>
+  </si>
+  <si>
+    <t>Servio</t>
+  </si>
+  <si>
+    <t>V-19668100-1</t>
+  </si>
+  <si>
+    <t>Referencia de ejemplo</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>13/04/2025</t>
+  </si>
+  <si>
+    <t>Sin novedad</t>
+  </si>
+  <si>
+    <t>Natacha</t>
+  </si>
+  <si>
+    <t>Rodolfo Martinez</t>
   </si>
 </sst>
 </file>
@@ -589,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="157">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -610,6 +589,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1025,6 +1007,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="14" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,13 +1070,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1113,13 +1107,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1150,13 +1144,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1187,13 +1181,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1511,7 +1505,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ62"/>
+  <dimension ref="A1:AJ63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C7" sqref="C7"/>
@@ -1522,7 +1516,7 @@
     <col min="1" max="1" width="8.7109375" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.42578125" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.5703125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true" style="14"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true" style="15"/>
     <col min="5" max="5" width="8.5703125" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.5703125" customWidth="true" style="0"/>
     <col min="7" max="7" width="10.28515625" customWidth="true" style="0"/>
@@ -1552,32 +1546,32 @@
     <col min="31" max="31" width="18.5703125" customWidth="true" style="0"/>
     <col min="32" max="32" width="17.28515625" customWidth="true" style="0"/>
     <col min="33" max="33" width="60" customWidth="true" style="0"/>
-    <col min="34" max="34" width="24.5703125" customWidth="true" style="15"/>
-    <col min="35" max="35" width="19.85546875" customWidth="true" style="15"/>
-    <col min="36" max="36" width="23.28515625" customWidth="true" style="15"/>
+    <col min="34" max="34" width="24.5703125" customWidth="true" style="16"/>
+    <col min="35" max="35" width="19.85546875" customWidth="true" style="16"/>
+    <col min="36" max="36" width="23.28515625" customWidth="true" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" customHeight="1" ht="26.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147" t="s">
+      <c r="C1" s="153"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1602,19 +1596,19 @@
       <c r="AJ1"/>
     </row>
     <row r="2" spans="1:36" customHeight="1" ht="12.75">
-      <c r="A2" s="138">
+      <c r="A2" s="139">
         <v>0</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1644,19 +1638,19 @@
       <c r="AJ2"/>
     </row>
     <row r="3" spans="1:36" customHeight="1" ht="12.75">
-      <c r="A3" s="138">
+      <c r="A3" s="139">
         <v>1</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1686,19 +1680,19 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" customHeight="1" ht="12.75">
-      <c r="A4" s="138">
+      <c r="A4" s="139">
         <v>2</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1728,19 +1722,19 @@
       <c r="AJ4"/>
     </row>
     <row r="5" spans="1:36" customHeight="1" ht="12.75">
-      <c r="A5" s="138">
+      <c r="A5" s="139">
         <v>3</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1770,492 +1764,482 @@
       <c r="AJ5"/>
     </row>
     <row r="6" spans="1:36" customHeight="1" ht="64.5">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="53" t="s">
+      <c r="U6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="53" t="s">
+      <c r="V6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="53" t="s">
+      <c r="W6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="53" t="s">
+      <c r="X6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="53" t="s">
+      <c r="Y6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="53" t="s">
+      <c r="Z6" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="53" t="s">
+      <c r="AA6" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="53" t="s">
+      <c r="AB6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="54" t="s">
+      <c r="AC6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="55" t="s">
+      <c r="AD6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AE6" s="55" t="s">
+      <c r="AE6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AF6" s="55" t="s">
+      <c r="AF6" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AG6" s="55" t="s">
+      <c r="AG6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AH6" s="55" t="s">
+      <c r="AH6" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="55" t="s">
+      <c r="AI6" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AJ6" s="56" t="s">
+      <c r="AJ6" s="57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:36" customHeight="1" ht="34.9" s="7" customFormat="1">
-      <c r="A7" s="48">
-        <v>2</v>
-      </c>
-      <c r="B7" s="77" t="s">
+    <row r="7" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="76">
+        <v>2362</v>
+      </c>
+      <c r="C7" s="76">
+        <v>4682</v>
+      </c>
+      <c r="D7" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="65">
-        <v>11</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>46</v>
       </c>
       <c r="G7" s="4">
         <v>2025</v>
       </c>
-      <c r="H7" s="142">
-        <v>1</v>
-      </c>
-      <c r="I7" s="142" t="s">
+      <c r="H7" s="4">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="142" t="s">
+      <c r="R7" s="143" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="144">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>2</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="142" t="s">
+      <c r="V7" s="144">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="142" t="s">
+      <c r="X7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="Y7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="142" t="s">
+      <c r="Z7" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="142" t="s">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="142" t="s">
+      <c r="AD7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="78" t="s">
+      <c r="AE7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="67">
-        <v>5</v>
-      </c>
-      <c r="T7" s="66">
+      <c r="AF7" s="4">
         <v>2</v>
       </c>
-      <c r="U7" s="79" t="s">
+      <c r="AG7" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="67">
-        <v>1</v>
-      </c>
-      <c r="W7" s="66" t="s">
+      <c r="AH7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="49" t="s">
+      <c r="AI7" s="4">
+        <v>4242085000</v>
+      </c>
+      <c r="AJ7" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="142" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE7" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF7" s="69">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH7" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI7" s="65">
-        <v>30000000003</v>
-      </c>
-      <c r="AJ7" s="58" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="8" spans="1:36" customHeight="1" ht="34.9" s="7" customFormat="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="144"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="58"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="59"/>
     </row>
     <row r="9" spans="1:36" customHeight="1" ht="34.9" s="7" customFormat="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="58"/>
-    </row>
-    <row r="10" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="H9" s="149"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="149"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="59"/>
+    </row>
+    <row r="10" spans="1:36" customHeight="1" ht="34.9" s="7" customFormat="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="58"/>
-    </row>
-    <row r="11" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="59"/>
+    </row>
+    <row r="11" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="58"/>
-    </row>
-    <row r="12" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="59"/>
+    </row>
+    <row r="12" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="58"/>
-    </row>
-    <row r="13" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="59"/>
+    </row>
+    <row r="13" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="85"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="58"/>
-    </row>
-    <row r="14" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="58"/>
-    </row>
-    <row r="15" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="21"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="59"/>
+    </row>
+    <row r="14" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A14" s="87"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="59"/>
+    </row>
+    <row r="15" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2263,37 +2247,37 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="106"/>
+      <c r="L15" s="107"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="96"/>
+      <c r="R15" s="97"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="106"/>
+      <c r="T15" s="107"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="106"/>
-      <c r="AJ15" s="58"/>
-    </row>
-    <row r="16" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="21"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="59"/>
+    </row>
+    <row r="16" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2301,37 +2285,37 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="106"/>
+      <c r="L16" s="107"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="96"/>
+      <c r="R16" s="97"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="106"/>
+      <c r="T16" s="107"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="106"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="106"/>
-      <c r="AJ16" s="58"/>
-    </row>
-    <row r="17" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="21"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="107"/>
+      <c r="AJ16" s="59"/>
+    </row>
+    <row r="17" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2339,37 +2323,37 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="106"/>
+      <c r="L17" s="107"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="96"/>
+      <c r="R17" s="97"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="106"/>
+      <c r="T17" s="107"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="106"/>
+      <c r="V17" s="107"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="58"/>
-    </row>
-    <row r="18" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="21"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="59"/>
+    </row>
+    <row r="18" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A18" s="94"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2377,37 +2361,37 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="106"/>
+      <c r="L18" s="107"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="96"/>
+      <c r="R18" s="97"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="106"/>
+      <c r="T18" s="107"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="106"/>
+      <c r="V18" s="107"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="58"/>
-    </row>
-    <row r="19" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="59"/>
+    </row>
+    <row r="19" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2415,37 +2399,37 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="106"/>
+      <c r="L19" s="107"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="96"/>
+      <c r="R19" s="97"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="106"/>
+      <c r="T19" s="107"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="106"/>
+      <c r="V19" s="107"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="58"/>
-    </row>
-    <row r="20" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="107"/>
+      <c r="AJ19" s="59"/>
+    </row>
+    <row r="20" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A20" s="94"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2453,37 +2437,37 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="106"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="96"/>
+      <c r="R20" s="97"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="106"/>
+      <c r="T20" s="107"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="106"/>
+      <c r="V20" s="107"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="58"/>
-    </row>
-    <row r="21" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A21" s="93"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="107"/>
+      <c r="AJ20" s="59"/>
+    </row>
+    <row r="21" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2491,37 +2475,37 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="94"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="95"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="102"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="107"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="102"/>
+      <c r="V21" s="107"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="58"/>
-    </row>
-    <row r="22" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A22" s="93"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="21"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="59"/>
+    </row>
+    <row r="22" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A22" s="94"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2529,37 +2513,37 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="94"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="96"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="103"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="95"/>
+      <c r="V22" s="103"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="101"/>
-      <c r="AJ22" s="58"/>
-    </row>
-    <row r="23" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="21"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="102"/>
+      <c r="AJ22" s="59"/>
+    </row>
+    <row r="23" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2567,37 +2551,37 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="94"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="96"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="95"/>
+      <c r="V23" s="96"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="58"/>
-    </row>
-    <row r="24" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="21"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="102"/>
+      <c r="AI23" s="102"/>
+      <c r="AJ23" s="59"/>
+    </row>
+    <row r="24" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2605,37 +2589,37 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="94"/>
+      <c r="L24" s="95"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="97"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="96"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="102"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="102"/>
+      <c r="V24" s="96"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="58"/>
-    </row>
-    <row r="25" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="102"/>
+      <c r="AJ24" s="59"/>
+    </row>
+    <row r="25" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2643,37 +2627,37 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="94"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="98"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="102"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="103"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="102"/>
+      <c r="V25" s="103"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="58"/>
-    </row>
-    <row r="26" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="59"/>
+    </row>
+    <row r="26" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2681,37 +2665,37 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="103"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="96"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="102"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="103"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="102"/>
+      <c r="V26" s="103"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="58"/>
-    </row>
-    <row r="27" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="102"/>
+      <c r="AJ26" s="59"/>
+    </row>
+    <row r="27" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2719,37 +2703,37 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="103"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="95"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="96"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="104"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="103"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="104"/>
+      <c r="V27" s="103"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="58"/>
-    </row>
-    <row r="28" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="102"/>
+      <c r="AJ27" s="59"/>
+    </row>
+    <row r="28" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2757,37 +2741,37 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="103"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="96"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="102"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="105"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="102"/>
+      <c r="V28" s="105"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="58"/>
-    </row>
-    <row r="29" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="102"/>
+      <c r="AJ28" s="59"/>
+    </row>
+    <row r="29" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2795,37 +2779,37 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="103"/>
+      <c r="L29" s="104"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="105"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="102"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="103"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="102"/>
+      <c r="V29" s="103"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="100"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="58"/>
-    </row>
-    <row r="30" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="59"/>
+    </row>
+    <row r="30" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2833,37 +2817,37 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="103"/>
+      <c r="L30" s="104"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="103"/>
+      <c r="N30" s="104"/>
       <c r="O30" s="105"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="108"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="103"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="108"/>
+      <c r="V30" s="103"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="58"/>
-    </row>
-    <row r="31" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="102"/>
+      <c r="AJ30" s="59"/>
+    </row>
+    <row r="31" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2871,37 +2855,37 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="103"/>
+      <c r="L31" s="104"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="105"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="106"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="108"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="109"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="108"/>
+      <c r="V31" s="109"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="101"/>
-      <c r="AI31" s="101"/>
-      <c r="AJ31" s="58"/>
-    </row>
-    <row r="32" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="59"/>
+    </row>
+    <row r="32" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2909,37 +2893,37 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="103"/>
+      <c r="L32" s="104"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="105"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="106"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="108"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="109"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="108"/>
+      <c r="V32" s="109"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="99"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="101"/>
-      <c r="AI32" s="101"/>
-      <c r="AJ32" s="58"/>
-    </row>
-    <row r="33" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="102"/>
+      <c r="AI32" s="102"/>
+      <c r="AJ32" s="59"/>
+    </row>
+    <row r="33" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2947,37 +2931,37 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="103"/>
+      <c r="L33" s="104"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="105"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="106"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="108"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="109"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="108"/>
+      <c r="V33" s="109"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="58"/>
-    </row>
-    <row r="34" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="102"/>
+      <c r="AJ33" s="59"/>
+    </row>
+    <row r="34" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2985,37 +2969,37 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="103"/>
+      <c r="L34" s="104"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="105"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="106"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="108"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="109"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="108"/>
+      <c r="V34" s="109"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="58"/>
-    </row>
-    <row r="35" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="101"/>
+      <c r="AH34" s="102"/>
+      <c r="AI34" s="102"/>
+      <c r="AJ34" s="59"/>
+    </row>
+    <row r="35" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3023,37 +3007,37 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="103"/>
+      <c r="L35" s="104"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="105"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="106"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="108"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="109"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="108"/>
+      <c r="V35" s="109"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="109"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="100"/>
-      <c r="AH35" s="101"/>
-      <c r="AI35" s="101"/>
-      <c r="AJ35" s="58"/>
-    </row>
-    <row r="36" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="101"/>
+      <c r="AH35" s="102"/>
+      <c r="AI35" s="102"/>
+      <c r="AJ35" s="59"/>
+    </row>
+    <row r="36" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3061,37 +3045,37 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="103"/>
+      <c r="L36" s="104"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="105"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="106"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="108"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="109"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="108"/>
+      <c r="V36" s="109"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="109"/>
-      <c r="AA36" s="110"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="100"/>
-      <c r="AH36" s="101"/>
-      <c r="AI36" s="101"/>
-      <c r="AJ36" s="58"/>
-    </row>
-    <row r="37" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="100"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="101"/>
+      <c r="AH36" s="102"/>
+      <c r="AI36" s="102"/>
+      <c r="AJ36" s="59"/>
+    </row>
+    <row r="37" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3099,37 +3083,37 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="103"/>
+      <c r="L37" s="104"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="105"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="106"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="108"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="109"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="108"/>
+      <c r="V37" s="109"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="102"/>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="100"/>
-      <c r="AH37" s="101"/>
-      <c r="AI37" s="101"/>
-      <c r="AJ37" s="58"/>
-    </row>
-    <row r="38" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="101"/>
+      <c r="AH37" s="102"/>
+      <c r="AI37" s="102"/>
+      <c r="AJ37" s="59"/>
+    </row>
+    <row r="38" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3137,37 +3121,37 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="103"/>
+      <c r="L38" s="104"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="105"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="106"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="108"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="109"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="108"/>
+      <c r="V38" s="109"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="102"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="100"/>
-      <c r="AH38" s="101"/>
-      <c r="AI38" s="101"/>
-      <c r="AJ38" s="58"/>
-    </row>
-    <row r="39" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y38" s="103"/>
+      <c r="Z38" s="112"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="101"/>
+      <c r="AH38" s="102"/>
+      <c r="AI38" s="102"/>
+      <c r="AJ38" s="59"/>
+    </row>
+    <row r="39" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3175,37 +3159,37 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="112"/>
+      <c r="L39" s="104"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="94"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="106"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="102"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
       <c r="T39" s="109"/>
       <c r="U39" s="6"/>
       <c r="V39" s="109"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="102"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="100"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="58"/>
-    </row>
-    <row r="40" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="Y39" s="103"/>
+      <c r="Z39" s="112"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="101"/>
+      <c r="AH39" s="102"/>
+      <c r="AI39" s="102"/>
+      <c r="AJ39" s="59"/>
+    </row>
+    <row r="40" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -3213,37 +3197,37 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="112"/>
+      <c r="L40" s="113"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="94"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="95"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="109"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="110"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="109"/>
+      <c r="V40" s="110"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="102"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
+      <c r="Y40" s="103"/>
+      <c r="Z40" s="112"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="100"/>
-      <c r="AH40" s="106"/>
-      <c r="AI40" s="106"/>
-      <c r="AJ40" s="58"/>
-    </row>
-    <row r="41" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="101"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="59"/>
+    </row>
+    <row r="41" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3251,37 +3235,37 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="112"/>
+      <c r="L41" s="113"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="94"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="95"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="109"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="110"/>
       <c r="U41" s="6"/>
-      <c r="V41" s="109"/>
+      <c r="V41" s="110"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="102"/>
-      <c r="Z41" s="111"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
+      <c r="Y41" s="103"/>
+      <c r="Z41" s="112"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="100"/>
-      <c r="AH41" s="106"/>
-      <c r="AI41" s="106"/>
-      <c r="AJ41" s="58"/>
-    </row>
-    <row r="42" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="101"/>
+      <c r="AH41" s="107"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="59"/>
+    </row>
+    <row r="42" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3289,37 +3273,37 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="112"/>
+      <c r="L42" s="113"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="94"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="95"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="109"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="110"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="109"/>
+      <c r="V42" s="110"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="102"/>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
+      <c r="Y42" s="103"/>
+      <c r="Z42" s="112"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="100"/>
-      <c r="AH42" s="106"/>
-      <c r="AI42" s="106"/>
-      <c r="AJ42" s="58"/>
-    </row>
-    <row r="43" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="101"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="59"/>
+    </row>
+    <row r="43" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3327,151 +3311,151 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="112"/>
+      <c r="L43" s="113"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="94"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="95"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="109"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="110"/>
       <c r="U43" s="6"/>
-      <c r="V43" s="109"/>
+      <c r="V43" s="110"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="102"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
+      <c r="Y43" s="103"/>
+      <c r="Z43" s="112"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="100"/>
-      <c r="AH43" s="106"/>
-      <c r="AI43" s="106"/>
-      <c r="AJ43" s="58"/>
-    </row>
-    <row r="44" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A44" s="93"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="64"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="58"/>
-    </row>
-    <row r="45" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="62"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="101"/>
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="107"/>
+      <c r="AJ43" s="59"/>
+    </row>
+    <row r="44" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="110"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="110"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="103"/>
+      <c r="Z44" s="112"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="101"/>
+      <c r="AH44" s="107"/>
+      <c r="AI44" s="107"/>
+      <c r="AJ44" s="59"/>
+    </row>
+    <row r="45" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A45" s="94"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="66"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="66"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="4"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="69"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="70"/>
-      <c r="AI45" s="65"/>
-      <c r="AJ45" s="58"/>
-    </row>
-    <row r="46" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A46" s="113"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="62"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="59"/>
+    </row>
+    <row r="46" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="67"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="73"/>
-      <c r="AA46" s="60"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="72"/>
-      <c r="AD46" s="60"/>
-      <c r="AE46" s="60"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="70"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="58"/>
-    </row>
-    <row r="47" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A47" s="93"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="62"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="66"/>
+      <c r="AB46" s="66"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="66"/>
+      <c r="AE46" s="66"/>
+      <c r="AF46" s="70"/>
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="71"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="59"/>
+    </row>
+    <row r="47" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A47" s="114"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3479,37 +3463,37 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="80"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="73"/>
-      <c r="AA47" s="60"/>
-      <c r="AB47" s="60"/>
-      <c r="AC47" s="72"/>
-      <c r="AD47" s="60"/>
-      <c r="AE47" s="60"/>
-      <c r="AF47" s="60"/>
-      <c r="AG47" s="64"/>
-      <c r="AH47" s="70"/>
-      <c r="AI47" s="72"/>
-      <c r="AJ47" s="58"/>
-    </row>
-    <row r="48" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="62"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="74"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="65"/>
+      <c r="AH47" s="71"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="59"/>
+    </row>
+    <row r="48" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3517,37 +3501,37 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="80"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="60"/>
-      <c r="AB48" s="60"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="60"/>
-      <c r="AE48" s="60"/>
-      <c r="AF48" s="60"/>
-      <c r="AG48" s="64"/>
-      <c r="AH48" s="70"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="58"/>
-    </row>
-    <row r="49" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="65"/>
+      <c r="AH48" s="71"/>
+      <c r="AI48" s="73"/>
+      <c r="AJ48" s="59"/>
+    </row>
+    <row r="49" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="62"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3555,37 +3539,37 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="17"/>
+      <c r="L49" s="73"/>
       <c r="M49" s="61"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="38"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="72"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="70"/>
-      <c r="AI49" s="17"/>
-      <c r="AJ49" s="58"/>
-    </row>
-    <row r="50" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="62"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="65"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="59"/>
+    </row>
+    <row r="50" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3593,37 +3577,37 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="116"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="117"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="39"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="72"/>
-      <c r="Y50" s="117"/>
-      <c r="Z50" s="118"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="72"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="64"/>
-      <c r="AH50" s="70"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="58"/>
-    </row>
-    <row r="51" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="62"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="73"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="71"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="59"/>
+    </row>
+    <row r="51" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A51" s="32"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -3631,37 +3615,37 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="116"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="117"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="118"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="117"/>
-      <c r="Z51" s="118"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="72"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="118"/>
+      <c r="Z51" s="119"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="73"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="70"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="58"/>
-    </row>
-    <row r="52" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="62"/>
+      <c r="AG51" s="65"/>
+      <c r="AH51" s="71"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="59"/>
+    </row>
+    <row r="52" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -3669,377 +3653,414 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="114"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="116"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="117"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="118"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="72"/>
-      <c r="Y52" s="117"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="72"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="119"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="73"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
-      <c r="AG52" s="64"/>
-      <c r="AH52" s="70"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="58"/>
-    </row>
-    <row r="53" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="28"/>
+      <c r="AG52" s="65"/>
+      <c r="AH52" s="71"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="59"/>
+    </row>
+    <row r="53" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A53" s="32"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="114"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="117"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="115"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="118"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="117"/>
-      <c r="Z53" s="118"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="118"/>
+      <c r="Z53" s="119"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="73"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
-      <c r="AG53" s="64"/>
-      <c r="AH53" s="70"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="58"/>
-    </row>
-    <row r="54" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="28"/>
+      <c r="AG53" s="65"/>
+      <c r="AH53" s="71"/>
+      <c r="AI53" s="29"/>
+      <c r="AJ53" s="59"/>
+    </row>
+    <row r="54" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A54" s="32"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="121"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="115"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="118"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="117"/>
-      <c r="Z54" s="118"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="118"/>
+      <c r="Z54" s="119"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
-      <c r="AG54" s="64"/>
-      <c r="AH54" s="70"/>
-      <c r="AI54" s="28"/>
-      <c r="AJ54" s="58"/>
-    </row>
-    <row r="55" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="28"/>
+      <c r="AG54" s="65"/>
+      <c r="AH54" s="71"/>
+      <c r="AI54" s="29"/>
+      <c r="AJ54" s="59"/>
+    </row>
+    <row r="55" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A55" s="32"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="121"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="117"/>
-      <c r="Z55" s="118"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
-      <c r="AG55" s="64"/>
-      <c r="AH55" s="70"/>
-      <c r="AI55" s="28"/>
-      <c r="AJ55" s="58"/>
-    </row>
-    <row r="56" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="28"/>
+      <c r="AG55" s="65"/>
+      <c r="AH55" s="71"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="59"/>
+    </row>
+    <row r="56" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="117"/>
-      <c r="Z56" s="118"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="118"/>
+      <c r="Z56" s="119"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
-      <c r="AG56" s="64"/>
-      <c r="AH56" s="70"/>
-      <c r="AI56" s="28"/>
-      <c r="AJ56" s="58"/>
-    </row>
-    <row r="57" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A57" s="31"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="28"/>
+      <c r="AG56" s="65"/>
+      <c r="AH56" s="71"/>
+      <c r="AI56" s="29"/>
+      <c r="AJ56" s="59"/>
+    </row>
+    <row r="57" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A57" s="32"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="121"/>
+      <c r="L57" s="121"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="117"/>
-      <c r="Z57" s="118"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="118"/>
+      <c r="Z57" s="119"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
-      <c r="AG57" s="64"/>
-      <c r="AH57" s="70"/>
-      <c r="AI57" s="28"/>
-      <c r="AJ57" s="58"/>
-    </row>
-    <row r="58" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="28"/>
+      <c r="AG57" s="65"/>
+      <c r="AH57" s="71"/>
+      <c r="AI57" s="29"/>
+      <c r="AJ57" s="59"/>
+    </row>
+    <row r="58" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="117"/>
-      <c r="Z58" s="118"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="118"/>
+      <c r="Z58" s="119"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
-      <c r="AG58" s="64"/>
-      <c r="AH58" s="70"/>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="58"/>
-    </row>
-    <row r="59" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="132"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="121"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
+      <c r="AG58" s="65"/>
+      <c r="AH58" s="71"/>
+      <c r="AI58" s="29"/>
+      <c r="AJ58" s="59"/>
+    </row>
+    <row r="59" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="121"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="122"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="118"/>
+      <c r="Z59" s="119"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="64"/>
-      <c r="AH59" s="70"/>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="58"/>
-    </row>
-    <row r="60" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
-      <c r="A60" s="126"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="135"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="128"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
+      <c r="AG59" s="65"/>
+      <c r="AH59" s="71"/>
+      <c r="AI59" s="29"/>
+      <c r="AJ59" s="59"/>
+    </row>
+    <row r="60" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A60" s="32"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="122"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="122"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="123"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="64"/>
-      <c r="AH60" s="70"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="58"/>
-    </row>
-    <row r="61" spans="1:36" customHeight="1" ht="34.9" s="8" customFormat="1">
+      <c r="AG60" s="65"/>
+      <c r="AH60" s="71"/>
+      <c r="AI60" s="29"/>
+      <c r="AJ60" s="59"/>
+    </row>
+    <row r="61" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
       <c r="A61" s="127"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="136"/>
+      <c r="K61" s="135"/>
       <c r="L61" s="129"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="12"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="11"/>
-      <c r="AH61" s="11"/>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="58"/>
-    </row>
-    <row r="62" spans="1:36">
-      <c r="A62"/>
-      <c r="AJ62" s="15"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="123"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="65"/>
+      <c r="AH61" s="71"/>
+      <c r="AI61" s="29"/>
+      <c r="AJ61" s="59"/>
+    </row>
+    <row r="62" spans="1:36" customHeight="1" ht="34.9" s="9" customFormat="1">
+      <c r="A62" s="128"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="124"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="59"/>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="A63"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
